--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\BOOT CAMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GladDemo\GladDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCD309-F774-40D6-87C4-ECA3FB11C5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70750B40-42D6-4CC5-8652-5F2010CF00CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -93,31 +93,34 @@
     <t xml:space="preserve">Create the home page component with Login, Register, Flight search options using CSS/Bootstrap/angular material </t>
   </si>
   <si>
-    <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page)</t>
-  </si>
-  <si>
-    <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)</t>
-  </si>
-  <si>
     <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials .</t>
   </si>
   <si>
-    <t>Create a flight search page for user to input, source, destination, date, number of passengers ,type of trip from user and show available flights. (route to home page)</t>
-  </si>
-  <si>
     <t>Create a seat matrix to show to user the available and booked seats when the user selects a flight.</t>
   </si>
   <si>
-    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats.</t>
-  </si>
-  <si>
-    <t>Create a method to print booked tickets</t>
-  </si>
-  <si>
     <t>Forgot Password (User)</t>
   </si>
   <si>
     <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket</t>
+  </si>
+  <si>
+    <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  [LOGIN SERVICE]</t>
+  </si>
+  <si>
+    <t>Create a flight search page for user to input, source, destination, date, number of passengers ,type of trip from user and show available flights. (route to home page) [SEARCH SERVICE]</t>
+  </si>
+  <si>
+    <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page) [CRUD SERVICE]</t>
+  </si>
+  <si>
+    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. [PAYMENT SERVICE]</t>
+  </si>
+  <si>
+    <t>Create a method to print booked tickets [PRINT SERVICE]</t>
+  </si>
+  <si>
+    <t>FORGOT PASSWORD SERVICE</t>
   </si>
 </sst>
 </file>
@@ -451,20 +454,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -480,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -488,7 +491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -496,7 +499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -504,7 +507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -512,83 +515,86 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GladDemo\GladDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70750B40-42D6-4CC5-8652-5F2010CF00CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B22152-E7A3-4A3E-A344-B4C0CF37BE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -57,9 +57,6 @@
     <t>Login Admin</t>
   </si>
   <si>
-    <t>Cancel Flight(Admin)</t>
-  </si>
-  <si>
     <t>Ticket Cancellation (User)</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>Seat Select (User)</t>
   </si>
   <si>
-    <t>Flight Search (User)</t>
-  </si>
-  <si>
     <t>Print Cancelled Ticket(User)</t>
   </si>
   <si>
-    <t>Understand the complete flow of the project</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decide the tables and relations among them required by the project </t>
   </si>
   <si>
@@ -90,44 +81,103 @@
     <t>Create the designed Database on MS-SQl</t>
   </si>
   <si>
-    <t xml:space="preserve">Create the home page component with Login, Register, Flight search options using CSS/Bootstrap/angular material </t>
-  </si>
-  <si>
-    <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials .</t>
-  </si>
-  <si>
     <t>Create a seat matrix to show to user the available and booked seats when the user selects a flight.</t>
   </si>
   <si>
     <t>Forgot Password (User)</t>
   </si>
   <si>
-    <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket</t>
-  </si>
-  <si>
-    <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  [LOGIN SERVICE]</t>
-  </si>
-  <si>
-    <t>Create a flight search page for user to input, source, destination, date, number of passengers ,type of trip from user and show available flights. (route to home page) [SEARCH SERVICE]</t>
-  </si>
-  <si>
-    <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page) [CRUD SERVICE]</t>
-  </si>
-  <si>
-    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. [PAYMENT SERVICE]</t>
-  </si>
-  <si>
-    <t>Create a method to print booked tickets [PRINT SERVICE]</t>
-  </si>
-  <si>
-    <t>FORGOT PASSWORD SERVICE</t>
+    <t xml:space="preserve">Doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impediments </t>
+  </si>
+  <si>
+    <t>To-Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand the complete flow of the project     </t>
+  </si>
+  <si>
+    <t>FORGOT PASSWORD SERVICE  
+PUT method in backend</t>
+  </si>
+  <si>
+    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. 
+PAYMENT SERVICE
+Dummy Entries</t>
+  </si>
+  <si>
+    <t>Create a method to print booked tickets 
+ PRINT SERVICE
+GET method to print in frontend 
+Ticket Layout</t>
+  </si>
+  <si>
+    <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket 
+DELETE method in backend
+Cancelled Ticket Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL: Aman Kumar Singh </t>
+  </si>
+  <si>
+    <t>Team Members : Khushi Mishra 
+                                Arhan das 
+                                Mohit Agrawal</t>
+  </si>
+  <si>
+    <t>AIRLINE RESERVATION SYSTEM</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/channel/19%3abe124b9bd14f467ea19ce77b8817c7be%40thread.tacv2/General?groupId=7b4966ee-4d0e-4bad-af4d-d09c8e884a91&amp;tenantId=02aa9fc1-18bc-4798-a020-e01c854dd434</t>
+  </si>
+  <si>
+    <t>Add Flight (Admin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Flight(Admin) </t>
+  </si>
+  <si>
+    <t>Search Result</t>
+  </si>
+  <si>
+    <t>Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
+ (Mohit)</t>
+  </si>
+  <si>
+    <t>Show result for Flight search (Arhan)</t>
+  </si>
+  <si>
+    <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page) 
+POST method in backend 
+User Repo  
+(Khusi)</t>
+  </si>
+  <si>
+    <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  
+LOGIN SERVICE 
+Login interface (Khushi)</t>
+  </si>
+  <si>
+    <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
+AUTHORIZE  (Aman)</t>
+  </si>
+  <si>
+    <t>POST method (Aman)</t>
+  </si>
+  <si>
+    <t>DELETE method (Aman)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +189,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -172,8 +231,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,153 +518,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{7B3C9DCE-6A6F-44D6-B123-35AA12BC0E76}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B22152-E7A3-4A3E-A344-B4C0CF37BE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BEB3A8-854D-42AE-B90D-EEC9AC3B97EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -133,9 +133,6 @@
     <t>AIRLINE RESERVATION SYSTEM</t>
   </si>
   <si>
-    <t>https://teams.microsoft.com/l/channel/19%3abe124b9bd14f467ea19ce77b8817c7be%40thread.tacv2/General?groupId=7b4966ee-4d0e-4bad-af4d-d09c8e884a91&amp;tenantId=02aa9fc1-18bc-4798-a020-e01c854dd434</t>
-  </si>
-  <si>
     <t>Add Flight (Admin)</t>
   </si>
   <si>
@@ -167,17 +164,26 @@
 AUTHORIZE  (Aman)</t>
   </si>
   <si>
-    <t>POST method (Aman)</t>
-  </si>
-  <si>
-    <t>DELETE method (Aman)</t>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Passenger details (form)
+Local Storage </t>
+  </si>
+  <si>
+    <t>Create Add Flight page for Admin
+POST method (Aman)</t>
+  </si>
+  <si>
+    <t>Create Delete page for Admin
+DELETE method (Aman)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +203,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +541,7 @@
     <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="63.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="58.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
@@ -604,56 +616,56 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -664,53 +676,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{7B3C9DCE-6A6F-44D6-B123-35AA12BC0E76}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BEB3A8-854D-42AE-B90D-EEC9AC3B97EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB918302-C736-4466-B182-242AA43351BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -142,41 +142,49 @@
     <t>Search Result</t>
   </si>
   <si>
+    <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
+AUTHORIZE  (Aman)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Passenger details (form)
+Local Storage </t>
+  </si>
+  <si>
+    <t>Create Add Flight page for Admin
+POST method (Aman)</t>
+  </si>
+  <si>
+    <t>Create Delete page for Admin
+DELETE method (Aman)</t>
+  </si>
+  <si>
     <t>Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
- (Mohit)</t>
-  </si>
-  <si>
-    <t>Show result for Flight search (Arhan)</t>
+ (Mohit)   (pending)</t>
+  </si>
+  <si>
+    <t>Show result for Flight search (Arhan)   (pending)</t>
   </si>
   <si>
     <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page) 
 POST method in backend 
 User Repo  
-(Khusi)</t>
+(Khusi)   (pending)</t>
   </si>
   <si>
     <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  
 LOGIN SERVICE 
-Login interface (Khushi)</t>
+Login interface (Khushi)   (pending)</t>
   </si>
   <si>
     <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
-AUTHORIZE  (Aman)</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Passenger details (form)
-Local Storage </t>
+AUTHORIZE  (Aman)   (pending)</t>
   </si>
   <si>
     <t>Create Add Flight page for Admin
-POST method (Aman)</t>
-  </si>
-  <si>
-    <t>Create Delete page for Admin
-DELETE method (Aman)</t>
+POST method (Aman)    (pending)</t>
   </si>
 </sst>
 </file>
@@ -532,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,7 +633,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -633,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -641,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -649,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -657,7 +665,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -665,7 +673,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -678,10 +686,10 @@
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB918302-C736-4466-B182-242AA43351BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5875A68-C359-4A22-9CCA-B76095776B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -142,19 +142,11 @@
     <t>Search Result</t>
   </si>
   <si>
-    <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
-AUTHORIZE  (Aman)</t>
-  </si>
-  <si>
     <t>Passenger</t>
   </si>
   <si>
     <t xml:space="preserve">Enter Passenger details (form)
 Local Storage </t>
-  </si>
-  <si>
-    <t>Create Add Flight page for Admin
-POST method (Aman)</t>
   </si>
   <si>
     <t>Create Delete page for Admin
@@ -541,7 +533,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,7 +625,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -641,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -649,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -657,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -665,15 +657,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -686,10 +678,10 @@
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5875A68-C359-4A22-9CCA-B76095776B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E2D16-5B60-413C-8293-E3DD7B8FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Understand the complete flow of the project     </t>
-  </si>
-  <si>
-    <t>FORGOT PASSWORD SERVICE  
-PUT method in backend</t>
   </si>
   <si>
     <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. 
@@ -145,45 +141,91 @@
     <t>Passenger</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter Passenger details (form)
-Local Storage </t>
-  </si>
-  <si>
     <t>Create Delete page for Admin
 DELETE method (Aman)</t>
   </si>
   <si>
-    <t>Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
- (Mohit)   (pending)</t>
-  </si>
-  <si>
-    <t>Show result for Flight search (Arhan)   (pending)</t>
-  </si>
-  <si>
-    <t>Create Register page for a new user and take required inputs (validate) . (Same style as home page) 
+    <t xml:space="preserve">Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
+ (Mohit)   </t>
+  </si>
+  <si>
+    <t>Auth Guards/Route Guard</t>
+  </si>
+  <si>
+    <t>Enter Passenger details (form)
+Local Storage  (mohit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Add Flight page for Admin
+POST method (Aman)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  
+LOGIN SERVICE 
+Login interface (Khushi)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show result for Flight search (Arhan)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Register page for a new user and take required inputs (validate) . (Same style as home page) 
 POST method in backend 
 User Repo  
-(Khusi)   (pending)</t>
-  </si>
-  <si>
-    <t>Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  
-LOGIN SERVICE 
-Login interface (Khushi)   (pending)</t>
-  </si>
-  <si>
-    <t>Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
-AUTHORIZE  (Aman)   (pending)</t>
-  </si>
-  <si>
-    <t>Create Add Flight page for Admin
-POST method (Aman)    (pending)</t>
+(Khusi)   </t>
+  </si>
+  <si>
+    <t>FORGOT PASSWORD SERVICE  
+PUT method in backend   (khushi)</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Show Booking History and option to cancel ticket</t>
+  </si>
+  <si>
+    <t>Limit Access to user and admin (Aman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
+ (Aman)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize Templates </t>
+  </si>
+  <si>
+    <t>Finalize Routes</t>
+  </si>
+  <si>
+    <t>Finalize Validations</t>
+  </si>
+  <si>
+    <t>Admin View</t>
+  </si>
+  <si>
+    <t>Show all flights and option to delete or add flight</t>
+  </si>
+  <si>
+    <t>Make a component to show cancelled ticket and an option to print the cancelled ticket</t>
+  </si>
+  <si>
+    <t>Strong Password, Confirm Password (Register page) (Arhan)</t>
+  </si>
+  <si>
+    <t>Password Validation, confirm password , frontend validations (mobile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Calculate Age , Duration ; Add flight- Autogenerate ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Flight by date ( Flight Schedule) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +251,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,15 +597,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,117 +660,174 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E2D16-5B60-413C-8293-E3DD7B8FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD540CE6-475D-4B73-8109-6A9D5AD5DF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -796,7 +796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD540CE6-475D-4B73-8109-6A9D5AD5DF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3B79D-90C1-4234-8EC7-7872EF9A40C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,6 @@
     <t>Passenger</t>
   </si>
   <si>
-    <t>Create Delete page for Admin
-DELETE method (Aman)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
  (Mohit)   </t>
   </si>
@@ -154,10 +150,6 @@
   <si>
     <t>Enter Passenger details (form)
 Local Storage  (mohit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Add Flight page for Admin
-POST method (Aman)    </t>
   </si>
   <si>
     <t xml:space="preserve">Create Login page for a registered user , take required inputs and validate login credentials from DB  . (Same style as home page)  
@@ -219,6 +211,14 @@
   </si>
   <si>
     <t xml:space="preserve">Delete Flight by date ( Flight Schedule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Add Flight (with date) page for Admin
+POST method (Aman)    </t>
+  </si>
+  <si>
+    <t>Create Delete page for Admin
+DELETE method (mohit)</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,72 +656,72 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -777,56 +777,56 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3B79D-90C1-4234-8EC7-7872EF9A40C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E66E21-3976-4C75-B52B-62DB9DD66A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,23 +732,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -772,31 +772,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -804,27 +804,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E66E21-3976-4C75-B52B-62DB9DD66A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687D16DE-A16B-4EEA-95A4-CC5E77D6A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -796,11 +796,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687D16DE-A16B-4EEA-95A4-CC5E77D6A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D091E7-FEBD-4D40-9FE4-326532C383CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,11 +740,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D091E7-FEBD-4D40-9FE4-326532C383CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3B79D-90C1-4234-8EC7-7872EF9A40C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,23 +732,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -772,59 +772,59 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3B79D-90C1-4234-8EC7-7872EF9A40C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D091E7-FEBD-4D40-9FE4-326532C383CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,23 +732,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -772,59 +772,59 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D091E7-FEBD-4D40-9FE4-326532C383CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C07AC-9494-49BF-983E-6ACFD9AB330C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,15 +210,15 @@
     <t xml:space="preserve">Auto Calculate Age , Duration ; Add flight- Autogenerate ID </t>
   </si>
   <si>
-    <t xml:space="preserve">Delete Flight by date ( Flight Schedule) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Add Flight (with date) page for Admin
 POST method (Aman)    </t>
   </si>
   <si>
     <t>Create Delete page for Admin
 DELETE method (mohit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3hrs </t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C07AC-9494-49BF-983E-6ACFD9AB330C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E57E14-FFED-4838-BF26-3176115ABAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2052" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,11 +113,6 @@
 Ticket Layout</t>
   </si>
   <si>
-    <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket 
-DELETE method in backend
-Cancelled Ticket Layout</t>
-  </si>
-  <si>
     <t xml:space="preserve">TL: Aman Kumar Singh </t>
   </si>
   <si>
@@ -219,6 +214,10 @@
   </si>
   <si>
     <t xml:space="preserve">3hrs </t>
+  </si>
+  <si>
+    <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket 
+Cancelled Ticket Layout</t>
   </si>
 </sst>
 </file>
@@ -580,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,15 +596,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,15 +664,15 @@
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -681,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -689,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -697,31 +696,31 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -734,10 +733,10 @@
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -756,12 +755,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -769,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -777,56 +776,56 @@
         <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E57E14-FFED-4838-BF26-3176115ABAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B468E70-A7FD-496F-AA31-595AEB2CC6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2052" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,11 +723,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -755,19 +755,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B468E70-A7FD-496F-AA31-595AEB2CC6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394240DA-D892-4EB9-91B1-331DCC4B8A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,11 +213,11 @@
 DELETE method (mohit)</t>
   </si>
   <si>
-    <t xml:space="preserve">3hrs </t>
-  </si>
-  <si>
     <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket 
 Cancelled Ticket Layout</t>
+  </si>
+  <si>
+    <t>3hrs , no flights  found , same email id. Login popup , no of seats-booking status;</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -823,9 +823,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394240DA-D892-4EB9-91B1-331DCC4B8A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AABEB-AC8A-456D-B214-EC7FED8B895C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2052" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>3hrs , no flights  found , same email id. Login popup , no of seats-booking status;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add/Delete schedule </t>
+  </si>
+  <si>
+    <t>Forgot pass</t>
+  </si>
+  <si>
+    <t>admin login</t>
+  </si>
+  <si>
+    <t>add flight</t>
+  </si>
+  <si>
+    <t>delete flight</t>
   </si>
 </sst>
 </file>
@@ -577,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,6 +843,31 @@
         <v>57</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AABEB-AC8A-456D-B214-EC7FED8B895C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E5A5C-E84C-47A4-9603-B6851359FD24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2052" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E5A5C-E84C-47A4-9603-B6851359FD24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3FE9C-2EA7-46BC-A886-25A89C6A8BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,6 +309,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +867,7 @@
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>62</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3FE9C-2EA7-46BC-A886-25A89C6A8BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4DA6B-2890-48EB-B5E6-5EDA796AB7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -190,9 +190,6 @@
     <t>Admin View</t>
   </si>
   <si>
-    <t>Show all flights and option to delete or add flight</t>
-  </si>
-  <si>
     <t>Make a component to show cancelled ticket and an option to print the cancelled ticket</t>
   </si>
   <si>
@@ -233,6 +230,12 @@
   </si>
   <si>
     <t>delete flight</t>
+  </si>
+  <si>
+    <t>Show all flights and option to delete or add flight (Aman)</t>
+  </si>
+  <si>
+    <t>validators , carousel</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -730,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -765,11 +768,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -778,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -786,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -799,10 +802,10 @@
     </row>
     <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -810,7 +813,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -838,37 +841,42 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\Desktop\Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4DA6B-2890-48EB-B5E6-5EDA796AB7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FBFAF1-7F3E-44CD-AE7B-68E2888D6205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -57,33 +57,18 @@
     <t>Login Admin</t>
   </si>
   <si>
-    <t>Ticket Cancellation (User)</t>
-  </si>
-  <si>
-    <t>Ticket Print (User)</t>
-  </si>
-  <si>
     <t>Payment (User)</t>
   </si>
   <si>
     <t>Seat Select (User)</t>
   </si>
   <si>
-    <t>Print Cancelled Ticket(User)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decide the tables and relations among them required by the project </t>
   </si>
   <si>
     <t>Create a project on Github and make the team members a collaborator</t>
   </si>
   <si>
-    <t>Create the designed Database on MS-SQl</t>
-  </si>
-  <si>
-    <t>Create a seat matrix to show to user the available and booked seats when the user selects a flight.</t>
-  </si>
-  <si>
     <t>Forgot Password (User)</t>
   </si>
   <si>
@@ -100,17 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Understand the complete flow of the project     </t>
-  </si>
-  <si>
-    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. 
-PAYMENT SERVICE
-Dummy Entries</t>
-  </si>
-  <si>
-    <t>Create a method to print booked tickets 
- PRINT SERVICE
-GET method to print in frontend 
-Ticket Layout</t>
   </si>
   <si>
     <t xml:space="preserve">TL: Aman Kumar Singh </t>
@@ -133,13 +107,6 @@
     <t>Search Result</t>
   </si>
   <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create the home page component with Login, Register, Flight search interface using CSS/Bootstrap/angular material       
- (Mohit)   </t>
-  </si>
-  <si>
     <t>Auth Guards/Route Guard</t>
   </si>
   <si>
@@ -155,87 +122,114 @@
     <t xml:space="preserve">Show result for Flight search (Arhan)   </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Register page for a new user and take required inputs (validate) . (Same style as home page) 
+    <t>FORGOT PASSWORD SERVICE  
+PUT method in backend   (khushi)</t>
+  </si>
+  <si>
+    <t>Limit Access to user and admin (Aman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
+ (Aman)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize Templates </t>
+  </si>
+  <si>
+    <t>Finalize Routes</t>
+  </si>
+  <si>
+    <t>Finalize Validations</t>
+  </si>
+  <si>
+    <t>Admin View</t>
+  </si>
+  <si>
+    <t>Strong Password, Confirm Password (Register page) (Arhan)</t>
+  </si>
+  <si>
+    <t>Password Validation, confirm password , frontend validations (mobile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Calculate Age , Duration ; Add flight- Autogenerate ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Add Flight (with date) page for Admin
+POST method (Aman)    </t>
+  </si>
+  <si>
+    <t>Create Delete page for Admin
+DELETE method (mohit)</t>
+  </si>
+  <si>
+    <t>3hrs , no flights  found , same email id. Login popup , no of seats-booking status;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add/Delete schedule </t>
+  </si>
+  <si>
+    <t>Forgot pass</t>
+  </si>
+  <si>
+    <t>admin login</t>
+  </si>
+  <si>
+    <t>add flight</t>
+  </si>
+  <si>
+    <t>delete flight</t>
+  </si>
+  <si>
+    <t>Show all flights and option to delete or add flight (Aman)</t>
+  </si>
+  <si>
+    <t>validators , carousel</t>
+  </si>
+  <si>
+    <t>AirBook</t>
+  </si>
+  <si>
+    <t>Create the designed Database on MS-SQl (Arhan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the home page component with Login, Register, Flight search interface        
+ (Mohit)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Register page for a new user and take required inputs (validate) .
 POST method in backend 
 User Repo  
 (Khusi)   </t>
   </si>
   <si>
-    <t>FORGOT PASSWORD SERVICE  
-PUT method in backend   (khushi)</t>
-  </si>
-  <si>
-    <t>User Profile</t>
-  </si>
-  <si>
-    <t>Show Booking History and option to cancel ticket</t>
-  </si>
-  <si>
-    <t>Limit Access to user and admin (Aman)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Login page for Admin , take required inputs ( Email, password) and validate credentials . 
- (Aman)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalize Templates </t>
-  </si>
-  <si>
-    <t>Finalize Routes</t>
-  </si>
-  <si>
-    <t>Finalize Validations</t>
-  </si>
-  <si>
-    <t>Admin View</t>
-  </si>
-  <si>
-    <t>Make a component to show cancelled ticket and an option to print the cancelled ticket</t>
-  </si>
-  <si>
-    <t>Strong Password, Confirm Password (Register page) (Arhan)</t>
-  </si>
-  <si>
-    <t>Password Validation, confirm password , frontend validations (mobile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Calculate Age , Duration ; Add flight- Autogenerate ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Add Flight (with date) page for Admin
-POST method (Aman)    </t>
-  </si>
-  <si>
-    <t>Create Delete page for Admin
-DELETE method (mohit)</t>
-  </si>
-  <si>
-    <t>Create a ticket cancellation page for User and check for booking details to cancel a booked ticket 
-Cancelled Ticket Layout</t>
-  </si>
-  <si>
-    <t>3hrs , no flights  found , same email id. Login popup , no of seats-booking status;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add/Delete schedule </t>
-  </si>
-  <si>
-    <t>Forgot pass</t>
-  </si>
-  <si>
-    <t>admin login</t>
-  </si>
-  <si>
-    <t>add flight</t>
-  </si>
-  <si>
-    <t>delete flight</t>
-  </si>
-  <si>
-    <t>Show all flights and option to delete or add flight (Aman)</t>
-  </si>
-  <si>
-    <t>validators , carousel</t>
+    <t>Create a seat matrix to show to user the available and booked seats when the user selects a flight.(Arhan)</t>
+  </si>
+  <si>
+    <t>Create a payment page and method for a user who has selected seat(s) for a flight and wants to book the seats. 
+PAYMENT SERVICE
+Dummy Entries (Khushi)</t>
+  </si>
+  <si>
+    <t>Booking History</t>
+  </si>
+  <si>
+    <t>Show Booking History and option to cancel ticket(Mohit)</t>
+  </si>
+  <si>
+    <t>Create a method to print booked tickets 
+(Aman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navbar </t>
+  </si>
+  <si>
+    <t>Modify navbar according to the role of logged in person(Arhan)</t>
+  </si>
+  <si>
+    <t>show Ticket (User)</t>
+  </si>
+  <si>
+    <t>Passenger details(User)</t>
   </si>
 </sst>
 </file>
@@ -300,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -316,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,18 +595,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
@@ -617,15 +614,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,16 +636,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -677,31 +677,31 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -717,166 +717,158 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
-        <v>60</v>
+      <c r="C35" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
-        <v>63</v>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
